--- a/Data/Predicted_random_forest.xlsx
+++ b/Data/Predicted_random_forest.xlsx
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>63.8</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3083,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>60.8</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>68.45</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>57.95</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>53.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>82.65000000000001</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3138,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>53.4</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>65.75</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>72.15000000000001</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3182,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>36.6</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>70.15000000000001</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>47.85</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>30.4</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>78.15000000000001</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>49.85</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>51.375</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>29.275</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>19.05</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>24.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>47.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>52.475</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>61.3</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>74.2</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>67.8</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>30.2</v>
+        <v>71.41666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>15.05</v>
+        <v>36.41666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>77.2</v>
+        <v>80.20833333333333</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>67.55</v>
+        <v>22.91666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>55.675</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>53.85</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>28.625</v>
+        <v>36.41666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>47.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>51.525</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>75.7</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>71.77500000000001</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>50.925</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3512,7 +3512,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>65.75</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3523,7 +3523,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>71.09999999999999</v>
+        <v>84.91666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3534,7 +3534,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>40.475</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3545,7 +3545,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>71.40000000000001</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>56.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3567,7 +3567,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>76.84999999999999</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3589,7 +3589,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>69.65000000000001</v>
+        <v>84.83333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3600,7 +3600,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>75.40000000000001</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3611,7 +3611,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>65.5</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>67.59999999999999</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>64.90000000000001</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3644,7 +3644,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>66.05</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>54.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>68.75</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3677,7 +3677,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>21.525</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3688,7 +3688,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>23.925</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>59.3</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3710,7 +3710,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>32.3</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>57.9</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>62.1</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3743,7 +3743,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>22.625</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3754,7 +3754,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3765,7 +3765,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>21.275</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>72.40000000000001</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>49.7</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3798,7 +3798,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>53.7</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3809,7 +3809,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>73.59999999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>70.7</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>55.675</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>52.625</v>
+        <v>22.91666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3853,7 +3853,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>43.775</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3864,7 +3864,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>25.5</v>
+        <v>82.41666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>75.34999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3886,7 +3886,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>74.90000000000001</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>46.8</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3908,7 +3908,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>88.75</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>47.25</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>83.05</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>66</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>72.59999999999999</v>
+        <v>37.08333333333334</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3974,7 +3974,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>66.34999999999999</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>78</v>
+        <v>81.41666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3996,7 +3996,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>77.84999999999999</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>49.75</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4018,7 +4018,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>75.675</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4029,7 +4029,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>70.875</v>
+        <v>65.94444444444444</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4040,7 +4040,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>77.15000000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4051,7 +4051,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4062,7 +4062,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>73.84999999999999</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4073,7 +4073,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>70.625</v>
+        <v>65.41666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>74.925</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>53.6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>31.45</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>56.425</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4128,7 +4128,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>67.90000000000001</v>
+        <v>70.91666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4139,7 +4139,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>67.65000000000001</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4150,7 +4150,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4161,7 +4161,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>51.875</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4172,7 +4172,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>55.875</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4183,7 +4183,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>68.25</v>
+        <v>68.91666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4194,7 +4194,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>53.95</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>71.40000000000001</v>
+        <v>84.83333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>51.875</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4227,7 +4227,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>64.75</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>25.025</v>
+        <v>34.16666666666666</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4249,7 +4249,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>41.95</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4260,7 +4260,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>38.4</v>
+        <v>72.375</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>68.7</v>
+        <v>81.33333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4282,7 +4282,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>53.225</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>42.2</v>
+        <v>82.91666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4315,7 +4315,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>78.05</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>56.975</v>
+        <v>75.6111111111111</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>39</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>52.9</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>64.84999999999999</v>
+        <v>82.91666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>41.95</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>36.8</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>64.25</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>50.35</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>49.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>24.825</v>
+        <v>61.44444444444445</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>55.35</v>
+        <v>36.41666666666666</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>75.3</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>49.875</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>54.075</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>54.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>19.05</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>52.475</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>53.425</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4535,7 +4535,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>69.84999999999999</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4546,7 +4546,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>48.775</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4557,7 +4557,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>16.15</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4568,7 +4568,7 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>63.375</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4579,7 +4579,7 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>22.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4590,7 +4590,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>44.875</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4601,7 +4601,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>82.55</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4612,7 +4612,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>62.325</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>22.725</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4634,7 +4634,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>67.55</v>
+        <v>73.91666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4645,7 +4645,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>78.95</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4656,7 +4656,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>49.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4667,7 +4667,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>71.05</v>
+        <v>75.91666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4678,7 +4678,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>66.7</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4689,7 +4689,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>76.65000000000001</v>
+        <v>70.91666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4700,7 +4700,7 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>52.9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4711,7 +4711,7 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>76.65000000000001</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4722,7 +4722,7 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>79.84999999999999</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4733,7 +4733,7 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>67.59999999999999</v>
+        <v>84.54166666666667</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4744,7 +4744,7 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>58.15</v>
+        <v>80.93055555555556</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4755,7 +4755,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4766,7 +4766,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>71.40000000000001</v>
+        <v>84.83333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4777,7 +4777,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>62.4</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4788,7 +4788,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>53.15</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4799,7 +4799,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>80.95</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4810,7 +4810,7 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>75</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4821,7 +4821,7 @@
         <v>161</v>
       </c>
       <c r="C161">
-        <v>66.40000000000001</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4832,7 +4832,7 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>64.45</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4854,7 +4854,7 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>18.3</v>
+        <v>70.33333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4865,7 +4865,7 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>22.45</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4876,7 +4876,7 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>79.55</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4887,7 +4887,7 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>74.925</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4898,7 +4898,7 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>63.9</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4909,7 +4909,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>62.45</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4920,7 +4920,7 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>58.8</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4931,7 +4931,7 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>58.1</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4942,7 +4942,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>55.35</v>
+        <v>69.33333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4953,7 +4953,7 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>46.85</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4964,7 +4964,7 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>71.40000000000001</v>
+        <v>84.91666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4975,7 +4975,7 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>49.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4986,7 +4986,7 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>33.05</v>
+        <v>48.08333333333334</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4997,7 +4997,7 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>44.35</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5008,7 +5008,7 @@
         <v>178</v>
       </c>
       <c r="C178">
-        <v>32.8</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5019,7 +5019,7 @@
         <v>179</v>
       </c>
       <c r="C179">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5030,7 +5030,7 @@
         <v>180</v>
       </c>
       <c r="C180">
-        <v>32.9</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5041,7 +5041,7 @@
         <v>181</v>
       </c>
       <c r="C181">
-        <v>33.05</v>
+        <v>48.08333333333334</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>182</v>
       </c>
       <c r="C182">
-        <v>61.95</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5063,7 +5063,7 @@
         <v>183</v>
       </c>
       <c r="C183">
-        <v>58.575</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5074,7 +5074,7 @@
         <v>184</v>
       </c>
       <c r="C184">
-        <v>56.725</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5085,7 +5085,7 @@
         <v>185</v>
       </c>
       <c r="C185">
-        <v>71.09999999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5096,7 +5096,7 @@
         <v>186</v>
       </c>
       <c r="C186">
-        <v>31.45</v>
+        <v>69.41666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>187</v>
       </c>
       <c r="C187">
-        <v>32.85</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5118,7 +5118,7 @@
         <v>188</v>
       </c>
       <c r="C188">
-        <v>45</v>
+        <v>65.94444444444444</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5129,7 +5129,7 @@
         <v>189</v>
       </c>
       <c r="C189">
-        <v>57.375</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5140,7 +5140,7 @@
         <v>190</v>
       </c>
       <c r="C190">
-        <v>52.55</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5151,7 +5151,7 @@
         <v>191</v>
       </c>
       <c r="C191">
-        <v>32.9</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>192</v>
       </c>
       <c r="C192">
-        <v>40.4</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5173,7 +5173,7 @@
         <v>193</v>
       </c>
       <c r="C193">
-        <v>73.675</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5184,7 +5184,7 @@
         <v>194</v>
       </c>
       <c r="C194">
-        <v>74.52500000000001</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>195</v>
       </c>
       <c r="C195">
-        <v>57.225</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5206,7 +5206,7 @@
         <v>196</v>
       </c>
       <c r="C196">
-        <v>66.59999999999999</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5217,7 +5217,7 @@
         <v>197</v>
       </c>
       <c r="C197">
-        <v>57.8</v>
+        <v>22.91666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5228,7 +5228,7 @@
         <v>198</v>
       </c>
       <c r="C198">
-        <v>67.3</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5239,7 +5239,7 @@
         <v>199</v>
       </c>
       <c r="C199">
-        <v>65.575</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5250,7 +5250,7 @@
         <v>200</v>
       </c>
       <c r="C200">
-        <v>74.8</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5261,7 +5261,7 @@
         <v>201</v>
       </c>
       <c r="C201">
-        <v>81.7</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>202</v>
       </c>
       <c r="C202">
-        <v>77.925</v>
+        <v>82.41666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>203</v>
       </c>
       <c r="C203">
-        <v>63.8</v>
+        <v>70.91666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>204</v>
       </c>
       <c r="C204">
-        <v>64.65000000000001</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>205</v>
       </c>
       <c r="C205">
-        <v>74.825</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>206</v>
       </c>
       <c r="C206">
-        <v>71.40000000000001</v>
+        <v>84.91666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>207</v>
       </c>
       <c r="C207">
-        <v>54</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>208</v>
       </c>
       <c r="C208">
-        <v>76.15000000000001</v>
+        <v>81.41666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5349,7 +5349,7 @@
         <v>209</v>
       </c>
       <c r="C209">
-        <v>65.84999999999999</v>
+        <v>69.41666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>210</v>
       </c>
       <c r="C210">
-        <v>71.40000000000001</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>211</v>
       </c>
       <c r="C211">
-        <v>61.7</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>212</v>
       </c>
       <c r="C212">
-        <v>74.34999999999999</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>213</v>
       </c>
       <c r="C213">
-        <v>65.22499999999999</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>214</v>
       </c>
       <c r="C214">
-        <v>68.77500000000001</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>215</v>
       </c>
       <c r="C215">
-        <v>48.75</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>216</v>
       </c>
       <c r="C216">
-        <v>56.425</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>217</v>
       </c>
       <c r="C217">
-        <v>45.45</v>
+        <v>70.91666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>218</v>
       </c>
       <c r="C218">
-        <v>56.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>219</v>
       </c>
       <c r="C219">
-        <v>55.675</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>220</v>
       </c>
       <c r="C220">
-        <v>63.5</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>221</v>
       </c>
       <c r="C221">
-        <v>78.90000000000001</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>222</v>
       </c>
       <c r="C222">
-        <v>74.65000000000001</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>223</v>
       </c>
       <c r="C223">
-        <v>75.45</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>224</v>
       </c>
       <c r="C224">
-        <v>60.8</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>225</v>
       </c>
       <c r="C225">
-        <v>35.05</v>
+        <v>71.41666666666667</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>226</v>
       </c>
       <c r="C226">
-        <v>76.75</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>227</v>
       </c>
       <c r="C227">
-        <v>54.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>228</v>
       </c>
       <c r="C228">
-        <v>54.075</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5569,7 +5569,7 @@
         <v>229</v>
       </c>
       <c r="C229">
-        <v>32.325</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>230</v>
       </c>
       <c r="C230">
-        <v>50.3</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>231</v>
       </c>
       <c r="C231">
-        <v>73.15000000000001</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5602,7 +5602,7 @@
         <v>232</v>
       </c>
       <c r="C232">
-        <v>68.575</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>233</v>
       </c>
       <c r="C233">
-        <v>29.275</v>
+        <v>45.91666666666666</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5624,7 +5624,7 @@
         <v>234</v>
       </c>
       <c r="C234">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5635,7 +5635,7 @@
         <v>235</v>
       </c>
       <c r="C235">
-        <v>60.4</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5646,7 +5646,7 @@
         <v>236</v>
       </c>
       <c r="C236">
-        <v>79.72499999999999</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5657,7 +5657,7 @@
         <v>237</v>
       </c>
       <c r="C237">
-        <v>66.3</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5668,7 +5668,7 @@
         <v>238</v>
       </c>
       <c r="C238">
-        <v>59.3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5679,7 +5679,7 @@
         <v>239</v>
       </c>
       <c r="C239">
-        <v>68.59999999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5690,7 +5690,7 @@
         <v>240</v>
       </c>
       <c r="C240">
-        <v>56</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>241</v>
       </c>
       <c r="C241">
-        <v>37.65</v>
+        <v>83.08333333333333</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5712,7 +5712,7 @@
         <v>242</v>
       </c>
       <c r="C242">
-        <v>71.34999999999999</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5723,7 +5723,7 @@
         <v>243</v>
       </c>
       <c r="C243">
-        <v>69.5</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5734,7 +5734,7 @@
         <v>244</v>
       </c>
       <c r="C244">
-        <v>66.2</v>
+        <v>75.33333333333333</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5745,7 +5745,7 @@
         <v>245</v>
       </c>
       <c r="C245">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>246</v>
       </c>
       <c r="C246">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>247</v>
       </c>
       <c r="C247">
-        <v>36.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5778,7 +5778,7 @@
         <v>248</v>
       </c>
       <c r="C248">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5789,7 +5789,7 @@
         <v>249</v>
       </c>
       <c r="C249">
-        <v>80.90000000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5800,7 +5800,7 @@
         <v>250</v>
       </c>
       <c r="C250">
-        <v>64</v>
+        <v>71.41666666666667</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>251</v>
       </c>
       <c r="C251">
-        <v>77.45</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5822,7 +5822,7 @@
         <v>252</v>
       </c>
       <c r="C252">
-        <v>81.2</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>253</v>
       </c>
       <c r="C253">
-        <v>64.7</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5844,7 +5844,7 @@
         <v>254</v>
       </c>
       <c r="C254">
-        <v>56.45</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5855,7 +5855,7 @@
         <v>255</v>
       </c>
       <c r="C255">
-        <v>75.625</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5866,7 +5866,7 @@
         <v>256</v>
       </c>
       <c r="C256">
-        <v>55.425</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>257</v>
       </c>
       <c r="C257">
-        <v>78.02500000000001</v>
+        <v>80.66666666666667</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5888,7 +5888,7 @@
         <v>258</v>
       </c>
       <c r="C258">
-        <v>67.55</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5899,7 +5899,7 @@
         <v>259</v>
       </c>
       <c r="C259">
-        <v>68.75</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>260</v>
       </c>
       <c r="C260">
-        <v>56.05</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>261</v>
       </c>
       <c r="C261">
-        <v>80.5</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5932,7 +5932,7 @@
         <v>262</v>
       </c>
       <c r="C262">
-        <v>76.95</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5943,7 +5943,7 @@
         <v>263</v>
       </c>
       <c r="C263">
-        <v>54.55</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5954,7 +5954,7 @@
         <v>264</v>
       </c>
       <c r="C264">
-        <v>84.27500000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5965,7 +5965,7 @@
         <v>265</v>
       </c>
       <c r="C265">
-        <v>52.55</v>
+        <v>25.08333333333333</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>266</v>
       </c>
       <c r="C266">
-        <v>85.15000000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>267</v>
       </c>
       <c r="C267">
-        <v>18.8</v>
+        <v>22.91666666666667</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5998,7 +5998,7 @@
         <v>268</v>
       </c>
       <c r="C268">
-        <v>35.5</v>
+        <v>37.08333333333334</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>269</v>
       </c>
       <c r="C269">
-        <v>52.975</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>270</v>
       </c>
       <c r="C270">
-        <v>74</v>
+        <v>71.08333333333333</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -6031,7 +6031,7 @@
         <v>271</v>
       </c>
       <c r="C271">
-        <v>74.34999999999999</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6042,7 +6042,7 @@
         <v>272</v>
       </c>
       <c r="C272">
-        <v>82.84999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6053,7 +6053,7 @@
         <v>273</v>
       </c>
       <c r="C273">
-        <v>73.8</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6064,7 +6064,7 @@
         <v>274</v>
       </c>
       <c r="C274">
-        <v>76.75</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6075,7 +6075,7 @@
         <v>275</v>
       </c>
       <c r="C275">
-        <v>17.7</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>276</v>
       </c>
       <c r="C276">
-        <v>44.55</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>277</v>
       </c>
       <c r="C277">
-        <v>73.84999999999999</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>278</v>
       </c>
       <c r="C278">
-        <v>89.95</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6119,7 +6119,7 @@
         <v>279</v>
       </c>
       <c r="C279">
-        <v>66.5</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>280</v>
       </c>
       <c r="C280">
-        <v>54.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>281</v>
       </c>
       <c r="C281">
-        <v>69.59999999999999</v>
+        <v>68.91666666666667</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6152,7 +6152,7 @@
         <v>282</v>
       </c>
       <c r="C282">
-        <v>79.2</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6163,7 +6163,7 @@
         <v>283</v>
       </c>
       <c r="C283">
-        <v>64.05</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6174,7 +6174,7 @@
         <v>284</v>
       </c>
       <c r="C284">
-        <v>53.7</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6185,7 +6185,7 @@
         <v>285</v>
       </c>
       <c r="C285">
-        <v>76.45</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>286</v>
       </c>
       <c r="C286">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>287</v>
       </c>
       <c r="C287">
-        <v>48.5</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6218,7 +6218,7 @@
         <v>288</v>
       </c>
       <c r="C288">
-        <v>72.59999999999999</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>289</v>
       </c>
       <c r="C289">
-        <v>53.1</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>290</v>
       </c>
       <c r="C290">
-        <v>74.15000000000001</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>291</v>
       </c>
       <c r="C291">
-        <v>29.275</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>292</v>
       </c>
       <c r="C292">
-        <v>34.2</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>293</v>
       </c>
       <c r="C293">
-        <v>49.85</v>
+        <v>68.91666666666667</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>294</v>
       </c>
       <c r="C294">
-        <v>75.84999999999999</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6295,7 +6295,7 @@
         <v>295</v>
       </c>
       <c r="C295">
-        <v>84.05</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>296</v>
       </c>
       <c r="C296">
-        <v>75.15000000000001</v>
+        <v>75.6111111111111</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>297</v>
       </c>
       <c r="C297">
-        <v>74.59999999999999</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>298</v>
       </c>
       <c r="C298">
-        <v>78.65000000000001</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>299</v>
       </c>
       <c r="C299">
-        <v>71.47499999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>300</v>
       </c>
       <c r="C300">
-        <v>69.825</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>301</v>
       </c>
       <c r="C301">
-        <v>63.025</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>302</v>
       </c>
       <c r="C302">
-        <v>71.95</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>303</v>
       </c>
       <c r="C303">
-        <v>78.55</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>304</v>
       </c>
       <c r="C304">
-        <v>68.05</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>305</v>
       </c>
       <c r="C305">
-        <v>47.6</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>306</v>
       </c>
       <c r="C306">
-        <v>49.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>307</v>
       </c>
       <c r="C307">
-        <v>53.375</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>308</v>
       </c>
       <c r="C308">
-        <v>73.95</v>
+        <v>65.3611111111111</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>309</v>
       </c>
       <c r="C309">
-        <v>47.6</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>310</v>
       </c>
       <c r="C310">
-        <v>76.2</v>
+        <v>65.41666666666667</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>311</v>
       </c>
       <c r="C311">
-        <v>52.75</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>312</v>
       </c>
       <c r="C312">
-        <v>70.875</v>
+        <v>84.91666666666667</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>313</v>
       </c>
       <c r="C313">
-        <v>74.90000000000001</v>
+        <v>65.41666666666667</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>314</v>
       </c>
       <c r="C314">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>315</v>
       </c>
       <c r="C315">
-        <v>44.675</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>316</v>
       </c>
       <c r="C316">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>317</v>
       </c>
       <c r="C317">
-        <v>51.575</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>318</v>
       </c>
       <c r="C318">
-        <v>70.40000000000001</v>
+        <v>75.33333333333333</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>319</v>
       </c>
       <c r="C319">
-        <v>70.7</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>320</v>
       </c>
       <c r="C320">
-        <v>54.975</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>321</v>
       </c>
       <c r="C321">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>322</v>
       </c>
       <c r="C322">
-        <v>59.35</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>323</v>
       </c>
       <c r="C323">
-        <v>70.40000000000001</v>
+        <v>75.33333333333333</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>324</v>
       </c>
       <c r="C324">
-        <v>71.40000000000001</v>
+        <v>84.91666666666667</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>325</v>
       </c>
       <c r="C325">
-        <v>50.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>326</v>
       </c>
       <c r="C326">
-        <v>75.55</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>327</v>
       </c>
       <c r="C327">
-        <v>47.525</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>328</v>
       </c>
       <c r="C328">
-        <v>48.85</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6669,7 +6669,7 @@
         <v>329</v>
       </c>
       <c r="C329">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6680,7 +6680,7 @@
         <v>330</v>
       </c>
       <c r="C330">
-        <v>53.375</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6691,7 +6691,7 @@
         <v>331</v>
       </c>
       <c r="C331">
-        <v>71</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6702,7 +6702,7 @@
         <v>332</v>
       </c>
       <c r="C332">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6713,7 +6713,7 @@
         <v>333</v>
       </c>
       <c r="C333">
-        <v>52.875</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6724,7 +6724,7 @@
         <v>334</v>
       </c>
       <c r="C334">
-        <v>64.75</v>
+        <v>80.66666666666667</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6735,7 +6735,7 @@
         <v>335</v>
       </c>
       <c r="C335">
-        <v>79.34999999999999</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6746,7 +6746,7 @@
         <v>336</v>
       </c>
       <c r="C336">
-        <v>29.275</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6757,7 +6757,7 @@
         <v>337</v>
       </c>
       <c r="C337">
-        <v>74.8</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6768,7 +6768,7 @@
         <v>338</v>
       </c>
       <c r="C338">
-        <v>66.7</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6779,7 +6779,7 @@
         <v>339</v>
       </c>
       <c r="C339">
-        <v>63.05</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6790,7 +6790,7 @@
         <v>340</v>
       </c>
       <c r="C340">
-        <v>16.5</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6801,7 +6801,7 @@
         <v>341</v>
       </c>
       <c r="C341">
-        <v>63.05</v>
+        <v>78.33333333333333</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6812,7 +6812,7 @@
         <v>342</v>
       </c>
       <c r="C342">
-        <v>59.525</v>
+        <v>34.16666666666666</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6823,7 +6823,7 @@
         <v>343</v>
       </c>
       <c r="C343">
-        <v>54.4</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6834,7 +6834,7 @@
         <v>344</v>
       </c>
       <c r="C344">
-        <v>62.225</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6845,7 +6845,7 @@
         <v>345</v>
       </c>
       <c r="C345">
-        <v>64.65000000000001</v>
+        <v>45.91666666666666</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6856,7 +6856,7 @@
         <v>346</v>
       </c>
       <c r="C346">
-        <v>50.45</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6867,7 +6867,7 @@
         <v>347</v>
       </c>
       <c r="C347">
-        <v>49.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6878,7 +6878,7 @@
         <v>348</v>
       </c>
       <c r="C348">
-        <v>49.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6889,7 +6889,7 @@
         <v>349</v>
       </c>
       <c r="C349">
-        <v>76.05</v>
+        <v>74.33333333333333</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6900,7 +6900,7 @@
         <v>350</v>
       </c>
       <c r="C350">
-        <v>19.5</v>
+        <v>84.54166666666667</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6911,7 +6911,7 @@
         <v>351</v>
       </c>
       <c r="C351">
-        <v>53.4</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6922,7 +6922,7 @@
         <v>352</v>
       </c>
       <c r="C352">
-        <v>59.475</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6933,7 +6933,7 @@
         <v>353</v>
       </c>
       <c r="C353">
-        <v>56.25</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6944,7 +6944,7 @@
         <v>354</v>
       </c>
       <c r="C354">
-        <v>40.05</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6955,7 +6955,7 @@
         <v>355</v>
       </c>
       <c r="C355">
-        <v>56.6</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6966,7 +6966,7 @@
         <v>356</v>
       </c>
       <c r="C356">
-        <v>41.55</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6977,7 +6977,7 @@
         <v>357</v>
       </c>
       <c r="C357">
-        <v>63.05</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6988,7 +6988,7 @@
         <v>358</v>
       </c>
       <c r="C358">
-        <v>53.4</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6999,7 +6999,7 @@
         <v>359</v>
       </c>
       <c r="C359">
-        <v>40.5</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -7010,7 +7010,7 @@
         <v>360</v>
       </c>
       <c r="C360">
-        <v>53.4</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -7021,7 +7021,7 @@
         <v>361</v>
       </c>
       <c r="C361">
-        <v>52</v>
+        <v>72.375</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -7032,7 +7032,7 @@
         <v>362</v>
       </c>
       <c r="C362">
-        <v>25.875</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -7043,7 +7043,7 @@
         <v>363</v>
       </c>
       <c r="C363">
-        <v>16.4</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -7054,7 +7054,7 @@
         <v>364</v>
       </c>
       <c r="C364">
-        <v>76.84999999999999</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -7065,7 +7065,7 @@
         <v>365</v>
       </c>
       <c r="C365">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -7076,7 +7076,7 @@
         <v>366</v>
       </c>
       <c r="C366">
-        <v>73.05</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -7087,7 +7087,7 @@
         <v>367</v>
       </c>
       <c r="C367">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -7098,7 +7098,7 @@
         <v>368</v>
       </c>
       <c r="C368">
-        <v>67.40000000000001</v>
+        <v>72</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -7109,7 +7109,7 @@
         <v>369</v>
       </c>
       <c r="C369">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -7120,7 +7120,7 @@
         <v>370</v>
       </c>
       <c r="C370">
-        <v>73.3</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -7131,7 +7131,7 @@
         <v>371</v>
       </c>
       <c r="C371">
-        <v>68.15000000000001</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -7142,7 +7142,7 @@
         <v>372</v>
       </c>
       <c r="C372">
-        <v>61.75</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -7153,7 +7153,7 @@
         <v>373</v>
       </c>
       <c r="C373">
-        <v>43.3</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -7164,7 +7164,7 @@
         <v>374</v>
       </c>
       <c r="C374">
-        <v>72.40000000000001</v>
+        <v>83</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -7175,7 +7175,7 @@
         <v>375</v>
       </c>
       <c r="C375">
-        <v>64.84999999999999</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -7186,7 +7186,7 @@
         <v>376</v>
       </c>
       <c r="C376">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7197,7 +7197,7 @@
         <v>377</v>
       </c>
       <c r="C377">
-        <v>67.59999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -7208,7 +7208,7 @@
         <v>378</v>
       </c>
       <c r="C378">
-        <v>67.40000000000001</v>
+        <v>69.33333333333333</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7219,7 +7219,7 @@
         <v>379</v>
       </c>
       <c r="C379">
-        <v>71</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7230,7 +7230,7 @@
         <v>380</v>
       </c>
       <c r="C380">
-        <v>65.3</v>
+        <v>75.33333333333333</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7241,7 +7241,7 @@
         <v>381</v>
       </c>
       <c r="C381">
-        <v>55.475</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7252,7 +7252,7 @@
         <v>382</v>
       </c>
       <c r="C382">
-        <v>50.3</v>
+        <v>80.93055555555556</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7263,7 +7263,7 @@
         <v>383</v>
       </c>
       <c r="C383">
-        <v>53.2</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7274,7 +7274,7 @@
         <v>384</v>
       </c>
       <c r="C384">
-        <v>69.72499999999999</v>
+        <v>83.83333333333333</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7285,7 +7285,7 @@
         <v>385</v>
       </c>
       <c r="C385">
-        <v>71.09999999999999</v>
+        <v>84.91666666666667</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7296,7 +7296,7 @@
         <v>386</v>
       </c>
       <c r="C386">
-        <v>50.725</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7307,7 +7307,7 @@
         <v>387</v>
       </c>
       <c r="C387">
-        <v>53.375</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7318,7 +7318,7 @@
         <v>388</v>
       </c>
       <c r="C388">
-        <v>47.6</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7329,7 +7329,7 @@
         <v>389</v>
       </c>
       <c r="C389">
-        <v>78.75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7340,7 +7340,7 @@
         <v>390</v>
       </c>
       <c r="C390">
-        <v>55.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7351,7 +7351,7 @@
         <v>391</v>
       </c>
       <c r="C391">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7362,7 +7362,7 @@
         <v>392</v>
       </c>
       <c r="C392">
-        <v>23.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7373,7 +7373,7 @@
         <v>393</v>
       </c>
       <c r="C393">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7384,7 +7384,7 @@
         <v>394</v>
       </c>
       <c r="C394">
-        <v>82.90000000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7395,7 +7395,7 @@
         <v>395</v>
       </c>
       <c r="C395">
-        <v>65.8</v>
+        <v>81.54166666666667</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7406,7 +7406,7 @@
         <v>396</v>
       </c>
       <c r="C396">
-        <v>57.1</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7417,7 +7417,7 @@
         <v>397</v>
       </c>
       <c r="C397">
-        <v>76.75</v>
+        <v>61.44444444444445</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7428,7 +7428,7 @@
         <v>398</v>
       </c>
       <c r="C398">
-        <v>62.55</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7439,7 +7439,7 @@
         <v>399</v>
       </c>
       <c r="C399">
-        <v>23.925</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7450,7 +7450,7 @@
         <v>400</v>
       </c>
       <c r="C400">
-        <v>83.45</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7461,7 +7461,7 @@
         <v>401</v>
       </c>
       <c r="C401">
-        <v>35.35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7472,7 +7472,7 @@
         <v>402</v>
       </c>
       <c r="C402">
-        <v>56.625</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7483,7 +7483,7 @@
         <v>403</v>
       </c>
       <c r="C403">
-        <v>70.8</v>
+        <v>61.44444444444445</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7494,7 +7494,7 @@
         <v>404</v>
       </c>
       <c r="C404">
-        <v>64.75</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7505,7 +7505,7 @@
         <v>405</v>
       </c>
       <c r="C405">
-        <v>26.4</v>
+        <v>71.41666666666667</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7516,7 +7516,7 @@
         <v>406</v>
       </c>
       <c r="C406">
-        <v>69.15000000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7527,7 +7527,7 @@
         <v>407</v>
       </c>
       <c r="C407">
-        <v>54.275</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7538,7 +7538,7 @@
         <v>408</v>
       </c>
       <c r="C408">
-        <v>66.3</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>409</v>
       </c>
       <c r="C409">
-        <v>67</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7560,7 +7560,7 @@
         <v>410</v>
       </c>
       <c r="C410">
-        <v>72.95</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7571,7 +7571,7 @@
         <v>411</v>
       </c>
       <c r="C411">
-        <v>51.8</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7582,7 +7582,7 @@
         <v>412</v>
       </c>
       <c r="C412">
-        <v>79.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7593,7 +7593,7 @@
         <v>413</v>
       </c>
       <c r="C413">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7604,7 +7604,7 @@
         <v>414</v>
       </c>
       <c r="C414">
-        <v>34</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7615,7 +7615,7 @@
         <v>415</v>
       </c>
       <c r="C415">
-        <v>65.09999999999999</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7626,7 +7626,7 @@
         <v>416</v>
       </c>
       <c r="C416">
-        <v>34.6</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7637,7 +7637,7 @@
         <v>417</v>
       </c>
       <c r="C417">
-        <v>43.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7648,7 +7648,7 @@
         <v>418</v>
       </c>
       <c r="C418">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7659,7 +7659,7 @@
         <v>419</v>
       </c>
       <c r="C419">
-        <v>69.90000000000001</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7670,7 +7670,7 @@
         <v>420</v>
       </c>
       <c r="C420">
-        <v>54</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7681,7 +7681,7 @@
         <v>421</v>
       </c>
       <c r="C421">
-        <v>70.7</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7692,7 +7692,7 @@
         <v>422</v>
       </c>
       <c r="C422">
-        <v>57.85</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7703,7 +7703,7 @@
         <v>423</v>
       </c>
       <c r="C423">
-        <v>70.55</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7714,7 +7714,7 @@
         <v>424</v>
       </c>
       <c r="C424">
-        <v>70.84999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7725,7 +7725,7 @@
         <v>425</v>
       </c>
       <c r="C425">
-        <v>72.95</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7736,7 +7736,7 @@
         <v>426</v>
       </c>
       <c r="C426">
-        <v>67.7</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7747,7 +7747,7 @@
         <v>427</v>
       </c>
       <c r="C427">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7758,7 +7758,7 @@
         <v>428</v>
       </c>
       <c r="C428">
-        <v>68.75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7769,7 +7769,7 @@
         <v>429</v>
       </c>
       <c r="C429">
-        <v>67.40000000000001</v>
+        <v>69.33333333333333</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7780,7 +7780,7 @@
         <v>430</v>
       </c>
       <c r="C430">
-        <v>73.15000000000001</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7791,7 +7791,7 @@
         <v>431</v>
       </c>
       <c r="C431">
-        <v>51.575</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7802,7 +7802,7 @@
         <v>432</v>
       </c>
       <c r="C432">
-        <v>73.55</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7813,7 +7813,7 @@
         <v>433</v>
       </c>
       <c r="C433">
-        <v>61.2</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7824,7 +7824,7 @@
         <v>434</v>
       </c>
       <c r="C434">
-        <v>48.5</v>
+        <v>45.91666666666666</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7835,7 +7835,7 @@
         <v>435</v>
       </c>
       <c r="C435">
-        <v>68.84999999999999</v>
+        <v>71.41666666666667</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7846,7 +7846,7 @@
         <v>436</v>
       </c>
       <c r="C436">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7857,7 +7857,7 @@
         <v>437</v>
       </c>
       <c r="C437">
-        <v>50.975</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7868,7 +7868,7 @@
         <v>438</v>
       </c>
       <c r="C438">
-        <v>72.90000000000001</v>
+        <v>65.3611111111111</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7879,7 +7879,7 @@
         <v>439</v>
       </c>
       <c r="C439">
-        <v>69.72499999999999</v>
+        <v>81.41666666666667</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7890,7 +7890,7 @@
         <v>440</v>
       </c>
       <c r="C440">
-        <v>65.5</v>
+        <v>72.375</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7901,7 +7901,7 @@
         <v>441</v>
       </c>
       <c r="C441">
-        <v>49.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7912,7 +7912,7 @@
         <v>442</v>
       </c>
       <c r="C442">
-        <v>73.90000000000001</v>
+        <v>36.41666666666666</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7923,7 +7923,7 @@
         <v>443</v>
       </c>
       <c r="C443">
-        <v>41</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7934,7 +7934,7 @@
         <v>444</v>
       </c>
       <c r="C444">
-        <v>66.25</v>
+        <v>84.54166666666667</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7945,7 +7945,7 @@
         <v>445</v>
       </c>
       <c r="C445">
-        <v>53.275</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7956,7 +7956,7 @@
         <v>446</v>
       </c>
       <c r="C446">
-        <v>63.55</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7967,7 +7967,7 @@
         <v>447</v>
       </c>
       <c r="C447">
-        <v>61.85</v>
+        <v>75.6111111111111</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7978,7 +7978,7 @@
         <v>448</v>
       </c>
       <c r="C448">
-        <v>68.55</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7989,7 +7989,7 @@
         <v>449</v>
       </c>
       <c r="C449">
-        <v>50.15</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -8000,7 +8000,7 @@
         <v>450</v>
       </c>
       <c r="C450">
-        <v>66.375</v>
+        <v>70.33333333333333</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -8011,7 +8011,7 @@
         <v>451</v>
       </c>
       <c r="C451">
-        <v>62.325</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -8022,7 +8022,7 @@
         <v>452</v>
       </c>
       <c r="C452">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -8033,7 +8033,7 @@
         <v>453</v>
       </c>
       <c r="C453">
-        <v>59.15</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -8044,7 +8044,7 @@
         <v>454</v>
       </c>
       <c r="C454">
-        <v>54.075</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -8055,7 +8055,7 @@
         <v>455</v>
       </c>
       <c r="C455">
-        <v>78.75</v>
+        <v>58.66666666666666</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -8066,7 +8066,7 @@
         <v>456</v>
       </c>
       <c r="C456">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -8077,7 +8077,7 @@
         <v>457</v>
       </c>
       <c r="C457">
-        <v>71.40000000000001</v>
+        <v>84.83333333333333</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -8088,7 +8088,7 @@
         <v>458</v>
       </c>
       <c r="C458">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -8099,7 +8099,7 @@
         <v>459</v>
       </c>
       <c r="C459">
-        <v>84.8</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -8110,7 +8110,7 @@
         <v>460</v>
       </c>
       <c r="C460">
-        <v>62.125</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -8121,7 +8121,7 @@
         <v>461</v>
       </c>
       <c r="C461">
-        <v>69.2</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -8132,7 +8132,7 @@
         <v>462</v>
       </c>
       <c r="C462">
-        <v>43.625</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8143,7 +8143,7 @@
         <v>463</v>
       </c>
       <c r="C463">
-        <v>29.95</v>
+        <v>65.41666666666667</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8154,7 +8154,7 @@
         <v>464</v>
       </c>
       <c r="C464">
-        <v>43.625</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8165,7 +8165,7 @@
         <v>465</v>
       </c>
       <c r="C465">
-        <v>61.65</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8176,7 +8176,7 @@
         <v>466</v>
       </c>
       <c r="C466">
-        <v>67.84999999999999</v>
+        <v>45.91666666666666</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -8187,7 +8187,7 @@
         <v>467</v>
       </c>
       <c r="C467">
-        <v>64.2</v>
+        <v>82.41666666666667</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8198,7 +8198,7 @@
         <v>468</v>
       </c>
       <c r="C468">
-        <v>23.575</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8209,7 +8209,7 @@
         <v>469</v>
       </c>
       <c r="C469">
-        <v>45.55</v>
+        <v>81.41666666666667</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8220,7 +8220,7 @@
         <v>470</v>
       </c>
       <c r="C470">
-        <v>78.09999999999999</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8231,7 +8231,7 @@
         <v>471</v>
       </c>
       <c r="C471">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8242,7 +8242,7 @@
         <v>472</v>
       </c>
       <c r="C472">
-        <v>49.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8253,7 +8253,7 @@
         <v>473</v>
       </c>
       <c r="C473">
-        <v>69.2</v>
+        <v>82.91666666666667</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8264,7 +8264,7 @@
         <v>474</v>
       </c>
       <c r="C474">
-        <v>65.65000000000001</v>
+        <v>72.375</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8275,7 +8275,7 @@
         <v>475</v>
       </c>
       <c r="C475">
-        <v>52.125</v>
+        <v>67.91666666666667</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8286,7 +8286,7 @@
         <v>476</v>
       </c>
       <c r="C476">
-        <v>55.05</v>
+        <v>34.16666666666666</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8297,7 +8297,7 @@
         <v>477</v>
       </c>
       <c r="C477">
-        <v>49.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8308,7 +8308,7 @@
         <v>478</v>
       </c>
       <c r="C478">
-        <v>46.375</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8319,7 +8319,7 @@
         <v>479</v>
       </c>
       <c r="C479">
-        <v>63.95</v>
+        <v>70.91666666666667</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8330,7 +8330,7 @@
         <v>480</v>
       </c>
       <c r="C480">
-        <v>50.625</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8341,7 +8341,7 @@
         <v>481</v>
       </c>
       <c r="C481">
-        <v>43.775</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8352,7 +8352,7 @@
         <v>482</v>
       </c>
       <c r="C482">
-        <v>50.35</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8363,7 +8363,7 @@
         <v>483</v>
       </c>
       <c r="C483">
-        <v>67.175</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8374,7 +8374,7 @@
         <v>484</v>
       </c>
       <c r="C484">
-        <v>24.9</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8385,7 +8385,7 @@
         <v>485</v>
       </c>
       <c r="C485">
-        <v>41</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8396,7 +8396,7 @@
         <v>486</v>
       </c>
       <c r="C486">
-        <v>54.375</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8407,7 +8407,7 @@
         <v>487</v>
       </c>
       <c r="C487">
-        <v>53.875</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8418,7 +8418,7 @@
         <v>488</v>
       </c>
       <c r="C488">
-        <v>62.125</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8429,7 +8429,7 @@
         <v>489</v>
       </c>
       <c r="C489">
-        <v>56.6</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8440,7 +8440,7 @@
         <v>490</v>
       </c>
       <c r="C490">
-        <v>63.55</v>
+        <v>34.16666666666666</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8451,7 +8451,7 @@
         <v>491</v>
       </c>
       <c r="C491">
-        <v>73.25</v>
+        <v>66.63888888888889</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8462,7 +8462,7 @@
         <v>492</v>
       </c>
       <c r="C492">
-        <v>60.525</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8473,7 +8473,7 @@
         <v>493</v>
       </c>
       <c r="C493">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8484,7 +8484,7 @@
         <v>494</v>
       </c>
       <c r="C494">
-        <v>49.2</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -8495,7 +8495,7 @@
         <v>495</v>
       </c>
       <c r="C495">
-        <v>76.84999999999999</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8506,7 +8506,7 @@
         <v>496</v>
       </c>
       <c r="C496">
-        <v>68.09999999999999</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8517,7 +8517,7 @@
         <v>497</v>
       </c>
       <c r="C497">
-        <v>57.8</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8528,7 +8528,7 @@
         <v>498</v>
       </c>
       <c r="C498">
-        <v>21.9</v>
+        <v>44.08333333333334</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8539,7 +8539,7 @@
         <v>499</v>
       </c>
       <c r="C499">
-        <v>68.5</v>
+        <v>68.91666666666667</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8550,7 +8550,7 @@
         <v>500</v>
       </c>
       <c r="C500">
-        <v>67.59999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8561,7 +8561,7 @@
         <v>501</v>
       </c>
       <c r="C501">
-        <v>31.25</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8572,7 +8572,7 @@
         <v>502</v>
       </c>
       <c r="C502">
-        <v>25.7</v>
+        <v>66.04166666666667</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8583,7 +8583,7 @@
         <v>503</v>
       </c>
       <c r="C503">
-        <v>49.5</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8594,7 +8594,7 @@
         <v>504</v>
       </c>
       <c r="C504">
-        <v>52.45</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8605,7 +8605,7 @@
         <v>505</v>
       </c>
       <c r="C505">
-        <v>20.25</v>
+        <v>44.08333333333334</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8616,7 +8616,7 @@
         <v>506</v>
       </c>
       <c r="C506">
-        <v>78.05</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8627,7 +8627,7 @@
         <v>507</v>
       </c>
       <c r="C507">
-        <v>82.05</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8638,7 +8638,7 @@
         <v>508</v>
       </c>
       <c r="C508">
-        <v>81.09999999999999</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8649,7 +8649,7 @@
         <v>509</v>
       </c>
       <c r="C509">
-        <v>79.40000000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8660,7 +8660,7 @@
         <v>510</v>
       </c>
       <c r="C510">
-        <v>55.575</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8671,7 +8671,7 @@
         <v>511</v>
       </c>
       <c r="C511">
-        <v>73.675</v>
+        <v>84</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8682,7 +8682,7 @@
         <v>512</v>
       </c>
       <c r="C512">
-        <v>69.34999999999999</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8693,7 +8693,7 @@
         <v>513</v>
       </c>
       <c r="C513">
-        <v>66.84999999999999</v>
+        <v>45.91666666666666</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8704,7 +8704,7 @@
         <v>514</v>
       </c>
       <c r="C514">
-        <v>79</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8715,7 +8715,7 @@
         <v>515</v>
       </c>
       <c r="C515">
-        <v>78.55</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8726,7 +8726,7 @@
         <v>516</v>
       </c>
       <c r="C516">
-        <v>77.59999999999999</v>
+        <v>81.41666666666667</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8737,7 +8737,7 @@
         <v>517</v>
       </c>
       <c r="C517">
-        <v>78.5</v>
+        <v>81.41666666666667</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8748,7 +8748,7 @@
         <v>518</v>
       </c>
       <c r="C518">
-        <v>49.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8759,7 +8759,7 @@
         <v>519</v>
       </c>
       <c r="C519">
-        <v>66.84999999999999</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8770,7 +8770,7 @@
         <v>520</v>
       </c>
       <c r="C520">
-        <v>77.375</v>
+        <v>84.54166666666667</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8781,7 +8781,7 @@
         <v>521</v>
       </c>
       <c r="C521">
-        <v>73.8</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -8792,7 +8792,7 @@
         <v>522</v>
       </c>
       <c r="C522">
-        <v>65.3</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8803,7 +8803,7 @@
         <v>523</v>
       </c>
       <c r="C523">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8814,7 +8814,7 @@
         <v>524</v>
       </c>
       <c r="C524">
-        <v>77.15000000000001</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8825,7 +8825,7 @@
         <v>525</v>
       </c>
       <c r="C525">
-        <v>69.5</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8836,7 +8836,7 @@
         <v>526</v>
       </c>
       <c r="C526">
-        <v>74.5</v>
+        <v>75.33333333333333</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8847,7 +8847,7 @@
         <v>527</v>
       </c>
       <c r="C527">
-        <v>47.825</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8858,7 +8858,7 @@
         <v>528</v>
       </c>
       <c r="C528">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8869,7 +8869,7 @@
         <v>529</v>
       </c>
       <c r="C529">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8880,7 +8880,7 @@
         <v>530</v>
       </c>
       <c r="C530">
-        <v>71.95</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8891,7 +8891,7 @@
         <v>531</v>
       </c>
       <c r="C531">
-        <v>51.375</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8902,7 +8902,7 @@
         <v>532</v>
       </c>
       <c r="C532">
-        <v>51.875</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8913,7 +8913,7 @@
         <v>533</v>
       </c>
       <c r="C533">
-        <v>62.05</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8924,7 +8924,7 @@
         <v>534</v>
       </c>
       <c r="C534">
-        <v>73.075</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8935,7 +8935,7 @@
         <v>535</v>
       </c>
       <c r="C535">
-        <v>63.05</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8946,7 +8946,7 @@
         <v>536</v>
       </c>
       <c r="C536">
-        <v>64</v>
+        <v>30.91666666666667</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>537</v>
       </c>
       <c r="C537">
-        <v>74</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -8968,7 +8968,7 @@
         <v>538</v>
       </c>
       <c r="C538">
-        <v>56.425</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8979,7 +8979,7 @@
         <v>539</v>
       </c>
       <c r="C539">
-        <v>53.75</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8990,7 +8990,7 @@
         <v>540</v>
       </c>
       <c r="C540">
-        <v>71.45</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -9001,7 +9001,7 @@
         <v>541</v>
       </c>
       <c r="C541">
-        <v>75.90000000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -9012,7 +9012,7 @@
         <v>542</v>
       </c>
       <c r="C542">
-        <v>25.375</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -9023,7 +9023,7 @@
         <v>543</v>
       </c>
       <c r="C543">
-        <v>66.3</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9034,7 +9034,7 @@
         <v>544</v>
       </c>
       <c r="C544">
-        <v>21.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -9045,7 +9045,7 @@
         <v>545</v>
       </c>
       <c r="C545">
-        <v>75.55</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -9056,7 +9056,7 @@
         <v>546</v>
       </c>
       <c r="C546">
-        <v>85.8</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -9067,7 +9067,7 @@
         <v>547</v>
       </c>
       <c r="C547">
-        <v>69.7</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -9078,7 +9078,7 @@
         <v>548</v>
       </c>
       <c r="C548">
-        <v>67.75</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -9089,7 +9089,7 @@
         <v>549</v>
       </c>
       <c r="C549">
-        <v>22.475</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -9100,7 +9100,7 @@
         <v>550</v>
       </c>
       <c r="C550">
-        <v>63.05</v>
+        <v>82.09722222222221</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -9111,7 +9111,7 @@
         <v>551</v>
       </c>
       <c r="C551">
-        <v>75.15000000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -9122,7 +9122,7 @@
         <v>552</v>
       </c>
       <c r="C552">
-        <v>54.375</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -9133,7 +9133,7 @@
         <v>553</v>
       </c>
       <c r="C553">
-        <v>28.8</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -9144,7 +9144,7 @@
         <v>554</v>
       </c>
       <c r="C554">
-        <v>71.45</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -9155,7 +9155,7 @@
         <v>555</v>
       </c>
       <c r="C555">
-        <v>76.84999999999999</v>
+        <v>61.44444444444445</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -9166,7 +9166,7 @@
         <v>556</v>
       </c>
       <c r="C556">
-        <v>81.8</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -9177,7 +9177,7 @@
         <v>557</v>
       </c>
       <c r="C557">
-        <v>64</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -9188,7 +9188,7 @@
         <v>558</v>
       </c>
       <c r="C558">
-        <v>39.7</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -9199,7 +9199,7 @@
         <v>559</v>
       </c>
       <c r="C559">
-        <v>76.05</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -9210,7 +9210,7 @@
         <v>560</v>
       </c>
       <c r="C560">
-        <v>79.925</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -9221,7 +9221,7 @@
         <v>561</v>
       </c>
       <c r="C561">
-        <v>38.75</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -9232,7 +9232,7 @@
         <v>562</v>
       </c>
       <c r="C562">
-        <v>60.425</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -9243,7 +9243,7 @@
         <v>563</v>
       </c>
       <c r="C563">
-        <v>63.35</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -9254,7 +9254,7 @@
         <v>564</v>
       </c>
       <c r="C564">
-        <v>56.475</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -9265,7 +9265,7 @@
         <v>565</v>
       </c>
       <c r="C565">
-        <v>70.75</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -9276,7 +9276,7 @@
         <v>566</v>
       </c>
       <c r="C566">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -9287,7 +9287,7 @@
         <v>567</v>
       </c>
       <c r="C567">
-        <v>59.85</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -9298,7 +9298,7 @@
         <v>568</v>
       </c>
       <c r="C568">
-        <v>56.275</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -9309,7 +9309,7 @@
         <v>569</v>
       </c>
       <c r="C569">
-        <v>77.15000000000001</v>
+        <v>80.20833333333333</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -9320,7 +9320,7 @@
         <v>570</v>
       </c>
       <c r="C570">
-        <v>74.59999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -9331,7 +9331,7 @@
         <v>571</v>
       </c>
       <c r="C571">
-        <v>68.09999999999999</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -9342,7 +9342,7 @@
         <v>572</v>
       </c>
       <c r="C572">
-        <v>75.75</v>
+        <v>80.93055555555556</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -9353,7 +9353,7 @@
         <v>573</v>
       </c>
       <c r="C573">
-        <v>80.7</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -9364,7 +9364,7 @@
         <v>574</v>
       </c>
       <c r="C574">
-        <v>57</v>
+        <v>82.09722222222221</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -9375,7 +9375,7 @@
         <v>575</v>
       </c>
       <c r="C575">
-        <v>55.925</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -9386,7 +9386,7 @@
         <v>576</v>
       </c>
       <c r="C576">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -9397,7 +9397,7 @@
         <v>577</v>
       </c>
       <c r="C577">
-        <v>80.15000000000001</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -9408,7 +9408,7 @@
         <v>578</v>
       </c>
       <c r="C578">
-        <v>63.55</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -9419,7 +9419,7 @@
         <v>579</v>
       </c>
       <c r="C579">
-        <v>73.45</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -9430,7 +9430,7 @@
         <v>580</v>
       </c>
       <c r="C580">
-        <v>50.3</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -9441,7 +9441,7 @@
         <v>581</v>
       </c>
       <c r="C581">
-        <v>62.45</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -9452,7 +9452,7 @@
         <v>582</v>
       </c>
       <c r="C582">
-        <v>67.55</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -9463,7 +9463,7 @@
         <v>583</v>
       </c>
       <c r="C583">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -9474,7 +9474,7 @@
         <v>584</v>
       </c>
       <c r="C584">
-        <v>69.90000000000001</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -9485,7 +9485,7 @@
         <v>585</v>
       </c>
       <c r="C585">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -9496,7 +9496,7 @@
         <v>586</v>
       </c>
       <c r="C586">
-        <v>46.725</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -9507,7 +9507,7 @@
         <v>587</v>
       </c>
       <c r="C587">
-        <v>39.05</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -9518,7 +9518,7 @@
         <v>588</v>
       </c>
       <c r="C588">
-        <v>62.45</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -9529,7 +9529,7 @@
         <v>589</v>
       </c>
       <c r="C589">
-        <v>55.975</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -9540,7 +9540,7 @@
         <v>590</v>
       </c>
       <c r="C590">
-        <v>51.875</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -9551,7 +9551,7 @@
         <v>591</v>
       </c>
       <c r="C591">
-        <v>64.65000000000001</v>
+        <v>44.08333333333334</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -9562,7 +9562,7 @@
         <v>592</v>
       </c>
       <c r="C592">
-        <v>69.2</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -9573,7 +9573,7 @@
         <v>593</v>
       </c>
       <c r="C593">
-        <v>57.575</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -9584,7 +9584,7 @@
         <v>594</v>
       </c>
       <c r="C594">
-        <v>66.59999999999999</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -9595,7 +9595,7 @@
         <v>595</v>
       </c>
       <c r="C595">
-        <v>48.6</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -9606,7 +9606,7 @@
         <v>596</v>
       </c>
       <c r="C596">
-        <v>67.25</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -9617,7 +9617,7 @@
         <v>597</v>
       </c>
       <c r="C597">
-        <v>78</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -9628,7 +9628,7 @@
         <v>598</v>
       </c>
       <c r="C598">
-        <v>69.825</v>
+        <v>70.91666666666667</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -9639,7 +9639,7 @@
         <v>599</v>
       </c>
       <c r="C599">
-        <v>63.475</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -9650,7 +9650,7 @@
         <v>600</v>
       </c>
       <c r="C600">
-        <v>67.425</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -9661,7 +9661,7 @@
         <v>601</v>
       </c>
       <c r="C601">
-        <v>66.65000000000001</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -9672,7 +9672,7 @@
         <v>602</v>
       </c>
       <c r="C602">
-        <v>60.8</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -9683,7 +9683,7 @@
         <v>603</v>
       </c>
       <c r="C603">
-        <v>54.975</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -9694,7 +9694,7 @@
         <v>604</v>
       </c>
       <c r="C604">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -9705,7 +9705,7 @@
         <v>605</v>
       </c>
       <c r="C605">
-        <v>52.725</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -9716,7 +9716,7 @@
         <v>606</v>
       </c>
       <c r="C606">
-        <v>77.95</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -9727,7 +9727,7 @@
         <v>607</v>
       </c>
       <c r="C607">
-        <v>63.55</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -9738,7 +9738,7 @@
         <v>608</v>
       </c>
       <c r="C608">
-        <v>84.05</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -9749,7 +9749,7 @@
         <v>609</v>
       </c>
       <c r="C609">
-        <v>40.8</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -9760,7 +9760,7 @@
         <v>610</v>
       </c>
       <c r="C610">
-        <v>68.09999999999999</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -9771,7 +9771,7 @@
         <v>611</v>
       </c>
       <c r="C611">
-        <v>69.09999999999999</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -9782,7 +9782,7 @@
         <v>612</v>
       </c>
       <c r="C612">
-        <v>71.40000000000001</v>
+        <v>80.66666666666667</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -9793,7 +9793,7 @@
         <v>613</v>
       </c>
       <c r="C613">
-        <v>66.7</v>
+        <v>80.66666666666667</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -9804,7 +9804,7 @@
         <v>614</v>
       </c>
       <c r="C614">
-        <v>70.40000000000001</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -9815,7 +9815,7 @@
         <v>615</v>
       </c>
       <c r="C615">
-        <v>69.45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -9826,7 +9826,7 @@
         <v>616</v>
       </c>
       <c r="C616">
-        <v>51.1</v>
+        <v>65.41666666666667</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -9837,7 +9837,7 @@
         <v>617</v>
       </c>
       <c r="C617">
-        <v>50.65</v>
+        <v>65.41666666666667</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -9848,7 +9848,7 @@
         <v>618</v>
       </c>
       <c r="C618">
-        <v>50.475</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -9859,7 +9859,7 @@
         <v>619</v>
       </c>
       <c r="C619">
-        <v>53.575</v>
+        <v>36.41666666666666</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -9870,7 +9870,7 @@
         <v>620</v>
       </c>
       <c r="C620">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -9881,7 +9881,7 @@
         <v>621</v>
       </c>
       <c r="C621">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -9892,7 +9892,7 @@
         <v>622</v>
       </c>
       <c r="C622">
-        <v>56.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -9903,7 +9903,7 @@
         <v>623</v>
       </c>
       <c r="C623">
-        <v>53.15</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -9914,7 +9914,7 @@
         <v>624</v>
       </c>
       <c r="C624">
-        <v>62.25</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -9925,7 +9925,7 @@
         <v>625</v>
       </c>
       <c r="C625">
-        <v>48.95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -9936,7 +9936,7 @@
         <v>626</v>
       </c>
       <c r="C626">
-        <v>73</v>
+        <v>84.66666666666667</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -9947,7 +9947,7 @@
         <v>627</v>
       </c>
       <c r="C627">
-        <v>73.95</v>
+        <v>65.3611111111111</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -9958,7 +9958,7 @@
         <v>628</v>
       </c>
       <c r="C628">
-        <v>79.65000000000001</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -9969,7 +9969,7 @@
         <v>629</v>
       </c>
       <c r="C629">
-        <v>79.8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -9980,7 +9980,7 @@
         <v>630</v>
       </c>
       <c r="C630">
-        <v>25.025</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -9991,7 +9991,7 @@
         <v>631</v>
       </c>
       <c r="C631">
-        <v>79.05</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -10002,7 +10002,7 @@
         <v>632</v>
       </c>
       <c r="C632">
-        <v>26.275</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -10013,7 +10013,7 @@
         <v>633</v>
       </c>
       <c r="C633">
-        <v>77.7</v>
+        <v>84.91666666666667</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -10024,7 +10024,7 @@
         <v>634</v>
       </c>
       <c r="C634">
-        <v>63.35</v>
+        <v>74.33333333333333</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -10035,7 +10035,7 @@
         <v>635</v>
       </c>
       <c r="C635">
-        <v>69</v>
+        <v>83.33333333333333</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -10046,7 +10046,7 @@
         <v>636</v>
       </c>
       <c r="C636">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -10057,7 +10057,7 @@
         <v>637</v>
       </c>
       <c r="C637">
-        <v>56</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -10068,7 +10068,7 @@
         <v>638</v>
       </c>
       <c r="C638">
-        <v>64.3</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -10079,7 +10079,7 @@
         <v>639</v>
       </c>
       <c r="C639">
-        <v>63.85</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -10090,7 +10090,7 @@
         <v>640</v>
       </c>
       <c r="C640">
-        <v>74.45</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -10101,7 +10101,7 @@
         <v>641</v>
       </c>
       <c r="C641">
-        <v>60.9</v>
+        <v>86.05555555555554</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -10112,7 +10112,7 @@
         <v>642</v>
       </c>
       <c r="C642">
-        <v>71.34999999999999</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -10123,7 +10123,7 @@
         <v>643</v>
       </c>
       <c r="C643">
-        <v>58.25</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -10134,7 +10134,7 @@
         <v>644</v>
       </c>
       <c r="C644">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -10145,7 +10145,7 @@
         <v>645</v>
       </c>
       <c r="C645">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -10156,7 +10156,7 @@
         <v>646</v>
       </c>
       <c r="C646">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -10167,7 +10167,7 @@
         <v>647</v>
       </c>
       <c r="C647">
-        <v>57.35</v>
+        <v>83.08333333333333</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -10178,7 +10178,7 @@
         <v>648</v>
       </c>
       <c r="C648">
-        <v>71</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -10189,7 +10189,7 @@
         <v>649</v>
       </c>
       <c r="C649">
-        <v>52.7</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -10200,7 +10200,7 @@
         <v>650</v>
       </c>
       <c r="C650">
-        <v>70.65000000000001</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -10211,7 +10211,7 @@
         <v>651</v>
       </c>
       <c r="C651">
-        <v>60.35</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -10222,7 +10222,7 @@
         <v>652</v>
       </c>
       <c r="C652">
-        <v>51.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -10233,7 +10233,7 @@
         <v>653</v>
       </c>
       <c r="C653">
-        <v>50.1</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -10244,7 +10244,7 @@
         <v>654</v>
       </c>
       <c r="C654">
-        <v>61.25</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -10255,7 +10255,7 @@
         <v>655</v>
       </c>
       <c r="C655">
-        <v>82.84999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -10266,7 +10266,7 @@
         <v>656</v>
       </c>
       <c r="C656">
-        <v>63.35</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -10277,7 +10277,7 @@
         <v>657</v>
       </c>
       <c r="C657">
-        <v>64.65000000000001</v>
+        <v>68.91666666666667</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -10288,7 +10288,7 @@
         <v>658</v>
       </c>
       <c r="C658">
-        <v>49.35</v>
+        <v>25.08333333333333</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -10299,7 +10299,7 @@
         <v>659</v>
       </c>
       <c r="C659">
-        <v>63.5</v>
+        <v>67.83333333333333</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -10310,7 +10310,7 @@
         <v>660</v>
       </c>
       <c r="C660">
-        <v>78.34999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -10321,7 +10321,7 @@
         <v>661</v>
       </c>
       <c r="C661">
-        <v>74</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -10332,7 +10332,7 @@
         <v>662</v>
       </c>
       <c r="C662">
-        <v>54.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -10343,7 +10343,7 @@
         <v>663</v>
       </c>
       <c r="C663">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -10354,7 +10354,7 @@
         <v>664</v>
       </c>
       <c r="C664">
-        <v>80.55</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -10365,7 +10365,7 @@
         <v>665</v>
       </c>
       <c r="C665">
-        <v>25.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -10376,7 +10376,7 @@
         <v>666</v>
       </c>
       <c r="C666">
-        <v>50.7</v>
+        <v>68.91666666666667</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -10387,7 +10387,7 @@
         <v>667</v>
       </c>
       <c r="C667">
-        <v>54.2</v>
+        <v>84.54166666666667</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -10398,7 +10398,7 @@
         <v>668</v>
       </c>
       <c r="C668">
-        <v>47.6</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -10409,7 +10409,7 @@
         <v>669</v>
       </c>
       <c r="C669">
-        <v>60.975</v>
+        <v>45.91666666666666</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -10420,7 +10420,7 @@
         <v>670</v>
       </c>
       <c r="C670">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -10431,7 +10431,7 @@
         <v>671</v>
       </c>
       <c r="C671">
-        <v>24.425</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -10442,7 +10442,7 @@
         <v>672</v>
       </c>
       <c r="C672">
-        <v>53.425</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -10453,7 +10453,7 @@
         <v>673</v>
       </c>
       <c r="C673">
-        <v>19.05</v>
+        <v>36.41666666666666</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -10464,7 +10464,7 @@
         <v>674</v>
       </c>
       <c r="C674">
-        <v>51.3</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -10475,7 +10475,7 @@
         <v>675</v>
       </c>
       <c r="C675">
-        <v>51.575</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -10486,7 +10486,7 @@
         <v>676</v>
       </c>
       <c r="C676">
-        <v>63.35</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -10497,7 +10497,7 @@
         <v>677</v>
       </c>
       <c r="C677">
-        <v>77.8</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -10508,7 +10508,7 @@
         <v>678</v>
       </c>
       <c r="C678">
-        <v>35.35</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -10519,7 +10519,7 @@
         <v>679</v>
       </c>
       <c r="C679">
-        <v>63.35</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -10530,7 +10530,7 @@
         <v>680</v>
       </c>
       <c r="C680">
-        <v>55.475</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -10541,7 +10541,7 @@
         <v>681</v>
       </c>
       <c r="C681">
-        <v>32.8</v>
+        <v>83.08333333333333</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -10552,7 +10552,7 @@
         <v>682</v>
       </c>
       <c r="C682">
-        <v>68.75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -10563,7 +10563,7 @@
         <v>683</v>
       </c>
       <c r="C683">
-        <v>65.7</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -10574,7 +10574,7 @@
         <v>684</v>
       </c>
       <c r="C684">
-        <v>51.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -10585,7 +10585,7 @@
         <v>685</v>
       </c>
       <c r="C685">
-        <v>50.975</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -10596,7 +10596,7 @@
         <v>686</v>
       </c>
       <c r="C686">
-        <v>65.40000000000001</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -10607,7 +10607,7 @@
         <v>687</v>
       </c>
       <c r="C687">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -10618,7 +10618,7 @@
         <v>688</v>
       </c>
       <c r="C688">
-        <v>73.09999999999999</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -10629,7 +10629,7 @@
         <v>689</v>
       </c>
       <c r="C689">
-        <v>71.77500000000001</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -10640,7 +10640,7 @@
         <v>690</v>
       </c>
       <c r="C690">
-        <v>53.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -10651,7 +10651,7 @@
         <v>691</v>
       </c>
       <c r="C691">
-        <v>43.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -10662,7 +10662,7 @@
         <v>692</v>
       </c>
       <c r="C692">
-        <v>69.5</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -10673,7 +10673,7 @@
         <v>693</v>
       </c>
       <c r="C693">
-        <v>58.95</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -10684,7 +10684,7 @@
         <v>694</v>
       </c>
       <c r="C694">
-        <v>60.75</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -10695,7 +10695,7 @@
         <v>695</v>
       </c>
       <c r="C695">
-        <v>53.95</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -10706,7 +10706,7 @@
         <v>696</v>
       </c>
       <c r="C696">
-        <v>62.5</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -10717,7 +10717,7 @@
         <v>697</v>
       </c>
       <c r="C697">
-        <v>76.02500000000001</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -10728,7 +10728,7 @@
         <v>698</v>
       </c>
       <c r="C698">
-        <v>67.7</v>
+        <v>68.83333333333333</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -10739,7 +10739,7 @@
         <v>699</v>
       </c>
       <c r="C699">
-        <v>70.2</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -10750,7 +10750,7 @@
         <v>700</v>
       </c>
       <c r="C700">
-        <v>54.7</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -10761,7 +10761,7 @@
         <v>701</v>
       </c>
       <c r="C701">
-        <v>64.55</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -10772,7 +10772,7 @@
         <v>702</v>
       </c>
       <c r="C702">
-        <v>20.25</v>
+        <v>44.08333333333334</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -10783,7 +10783,7 @@
         <v>703</v>
       </c>
       <c r="C703">
-        <v>21.35</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -10794,7 +10794,7 @@
         <v>704</v>
       </c>
       <c r="C704">
-        <v>72.3</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -10805,7 +10805,7 @@
         <v>705</v>
       </c>
       <c r="C705">
-        <v>78.84999999999999</v>
+        <v>67.91666666666667</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -10816,7 +10816,7 @@
         <v>706</v>
       </c>
       <c r="C706">
-        <v>79.40000000000001</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -10827,7 +10827,7 @@
         <v>707</v>
       </c>
       <c r="C707">
-        <v>61.6</v>
+        <v>71.41666666666667</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -10838,7 +10838,7 @@
         <v>708</v>
       </c>
       <c r="C708">
-        <v>78.95</v>
+        <v>69.41666666666667</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -10849,7 +10849,7 @@
         <v>709</v>
       </c>
       <c r="C709">
-        <v>47.2</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -10860,7 +10860,7 @@
         <v>710</v>
       </c>
       <c r="C710">
-        <v>58.2</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -10871,7 +10871,7 @@
         <v>711</v>
       </c>
       <c r="C711">
-        <v>51.25</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -10882,7 +10882,7 @@
         <v>712</v>
       </c>
       <c r="C712">
-        <v>53.45</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -10893,7 +10893,7 @@
         <v>713</v>
       </c>
       <c r="C713">
-        <v>77.7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -10904,7 +10904,7 @@
         <v>714</v>
       </c>
       <c r="C714">
-        <v>26.15</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -10915,7 +10915,7 @@
         <v>715</v>
       </c>
       <c r="C715">
-        <v>73.05</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -10926,7 +10926,7 @@
         <v>716</v>
       </c>
       <c r="C716">
-        <v>41.9</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -10937,7 +10937,7 @@
         <v>717</v>
       </c>
       <c r="C717">
-        <v>58.775</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -10948,7 +10948,7 @@
         <v>718</v>
       </c>
       <c r="C718">
-        <v>53.3</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -10959,7 +10959,7 @@
         <v>719</v>
       </c>
       <c r="C719">
-        <v>72.3</v>
+        <v>82.16666666666667</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -10970,7 +10970,7 @@
         <v>720</v>
       </c>
       <c r="C720">
-        <v>50.35</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -10981,7 +10981,7 @@
         <v>721</v>
       </c>
       <c r="C721">
-        <v>50.35</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -10992,7 +10992,7 @@
         <v>722</v>
       </c>
       <c r="C722">
-        <v>18.3</v>
+        <v>70.33333333333333</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -11003,7 +11003,7 @@
         <v>723</v>
       </c>
       <c r="C723">
-        <v>25.55</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -11014,7 +11014,7 @@
         <v>724</v>
       </c>
       <c r="C724">
-        <v>48.25</v>
+        <v>65.3611111111111</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -11025,7 +11025,7 @@
         <v>725</v>
       </c>
       <c r="C725">
-        <v>55.675</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -11036,7 +11036,7 @@
         <v>726</v>
       </c>
       <c r="C726">
-        <v>65.09999999999999</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -11047,7 +11047,7 @@
         <v>727</v>
       </c>
       <c r="C727">
-        <v>69</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -11058,7 +11058,7 @@
         <v>728</v>
       </c>
       <c r="C728">
-        <v>65.77500000000001</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -11069,7 +11069,7 @@
         <v>729</v>
       </c>
       <c r="C729">
-        <v>47.975</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -11080,7 +11080,7 @@
         <v>730</v>
       </c>
       <c r="C730">
-        <v>82.8</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -11091,7 +11091,7 @@
         <v>731</v>
       </c>
       <c r="C731">
-        <v>73.59999999999999</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -11102,7 +11102,7 @@
         <v>732</v>
       </c>
       <c r="C732">
-        <v>53.375</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -11113,7 +11113,7 @@
         <v>733</v>
       </c>
       <c r="C733">
-        <v>48.825</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -11124,7 +11124,7 @@
         <v>734</v>
       </c>
       <c r="C734">
-        <v>83.05</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -11135,7 +11135,7 @@
         <v>735</v>
       </c>
       <c r="C735">
-        <v>56.975</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -11146,7 +11146,7 @@
         <v>736</v>
       </c>
       <c r="C736">
-        <v>75.45</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -11157,7 +11157,7 @@
         <v>737</v>
       </c>
       <c r="C737">
-        <v>77.75</v>
+        <v>69.41666666666667</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -11168,7 +11168,7 @@
         <v>738</v>
       </c>
       <c r="C738">
-        <v>46.7</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -11179,7 +11179,7 @@
         <v>739</v>
       </c>
       <c r="C739">
-        <v>81.2</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -11190,7 +11190,7 @@
         <v>740</v>
       </c>
       <c r="C740">
-        <v>55.425</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -11201,7 +11201,7 @@
         <v>741</v>
       </c>
       <c r="C741">
-        <v>30</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -11212,7 +11212,7 @@
         <v>742</v>
       </c>
       <c r="C742">
-        <v>63.375</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -11223,7 +11223,7 @@
         <v>743</v>
       </c>
       <c r="C743">
-        <v>62.725</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -11234,7 +11234,7 @@
         <v>744</v>
       </c>
       <c r="C744">
-        <v>46.65</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -11245,7 +11245,7 @@
         <v>745</v>
       </c>
       <c r="C745">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -11256,7 +11256,7 @@
         <v>746</v>
       </c>
       <c r="C746">
-        <v>48.275</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -11267,7 +11267,7 @@
         <v>747</v>
       </c>
       <c r="C747">
-        <v>67.75</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -11278,7 +11278,7 @@
         <v>748</v>
       </c>
       <c r="C748">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -11289,7 +11289,7 @@
         <v>749</v>
       </c>
       <c r="C749">
-        <v>49.45</v>
+        <v>91.58333333333333</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -11300,7 +11300,7 @@
         <v>750</v>
       </c>
       <c r="C750">
-        <v>35.4</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -11311,7 +11311,7 @@
         <v>751</v>
       </c>
       <c r="C751">
-        <v>35.75</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -11322,7 +11322,7 @@
         <v>752</v>
       </c>
       <c r="C752">
-        <v>48.475</v>
+        <v>69.70833333333333</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -11333,7 +11333,7 @@
         <v>753</v>
       </c>
       <c r="C753">
-        <v>68.625</v>
+        <v>44.08333333333334</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -11344,7 +11344,7 @@
         <v>754</v>
       </c>
       <c r="C754">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -11355,7 +11355,7 @@
         <v>755</v>
       </c>
       <c r="C755">
-        <v>80.45</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -11366,7 +11366,7 @@
         <v>756</v>
       </c>
       <c r="C756">
-        <v>53.45</v>
+        <v>88.91666666666667</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -11377,7 +11377,7 @@
         <v>757</v>
       </c>
       <c r="C757">
-        <v>80.90000000000001</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -11388,7 +11388,7 @@
         <v>758</v>
       </c>
       <c r="C758">
-        <v>51.875</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -11399,7 +11399,7 @@
         <v>759</v>
       </c>
       <c r="C759">
-        <v>79.45</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -11410,7 +11410,7 @@
         <v>760</v>
       </c>
       <c r="C760">
-        <v>51.5</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -11421,7 +11421,7 @@
         <v>761</v>
       </c>
       <c r="C761">
-        <v>48.475</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -11432,7 +11432,7 @@
         <v>762</v>
       </c>
       <c r="C762">
-        <v>71.15000000000001</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -11443,7 +11443,7 @@
         <v>763</v>
       </c>
       <c r="C763">
-        <v>42.825</v>
+        <v>72.375</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -11454,7 +11454,7 @@
         <v>764</v>
       </c>
       <c r="C764">
-        <v>60.85</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -11465,7 +11465,7 @@
         <v>765</v>
       </c>
       <c r="C765">
-        <v>67.90000000000001</v>
+        <v>65.3611111111111</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -11476,7 +11476,7 @@
         <v>766</v>
       </c>
       <c r="C766">
-        <v>53.725</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -11487,7 +11487,7 @@
         <v>767</v>
       </c>
       <c r="C767">
-        <v>62.125</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -11498,7 +11498,7 @@
         <v>768</v>
       </c>
       <c r="C768">
-        <v>50.3</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -11509,7 +11509,7 @@
         <v>769</v>
       </c>
       <c r="C769">
-        <v>60.55</v>
+        <v>66.63888888888889</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -11520,7 +11520,7 @@
         <v>770</v>
       </c>
       <c r="C770">
-        <v>61.95</v>
+        <v>70.91666666666667</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -11531,7 +11531,7 @@
         <v>771</v>
       </c>
       <c r="C771">
-        <v>73.05</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -11542,7 +11542,7 @@
         <v>772</v>
       </c>
       <c r="C772">
-        <v>56.875</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -11553,7 +11553,7 @@
         <v>773</v>
       </c>
       <c r="C773">
-        <v>48.05</v>
+        <v>65.94444444444444</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -11564,7 +11564,7 @@
         <v>774</v>
       </c>
       <c r="C774">
-        <v>71.15000000000001</v>
+        <v>69.08333333333333</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -11575,7 +11575,7 @@
         <v>775</v>
       </c>
       <c r="C775">
-        <v>52.925</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -11586,7 +11586,7 @@
         <v>776</v>
       </c>
       <c r="C776">
-        <v>77</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -11597,7 +11597,7 @@
         <v>777</v>
       </c>
       <c r="C777">
-        <v>68.09999999999999</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -11608,7 +11608,7 @@
         <v>778</v>
       </c>
       <c r="C778">
-        <v>47.525</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -11619,7 +11619,7 @@
         <v>779</v>
       </c>
       <c r="C779">
-        <v>66.27500000000001</v>
+        <v>71.41666666666667</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -11630,7 +11630,7 @@
         <v>780</v>
       </c>
       <c r="C780">
-        <v>68.34999999999999</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -11641,7 +11641,7 @@
         <v>781</v>
       </c>
       <c r="C781">
-        <v>54.6</v>
+        <v>61.41666666666666</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -11652,7 +11652,7 @@
         <v>782</v>
       </c>
       <c r="C782">
-        <v>55.475</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -11663,7 +11663,7 @@
         <v>783</v>
       </c>
       <c r="C783">
-        <v>47.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -11674,7 +11674,7 @@
         <v>784</v>
       </c>
       <c r="C784">
-        <v>47.525</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -11685,7 +11685,7 @@
         <v>785</v>
       </c>
       <c r="C785">
-        <v>22.85</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -11696,7 +11696,7 @@
         <v>786</v>
       </c>
       <c r="C786">
-        <v>36.75</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -11707,7 +11707,7 @@
         <v>787</v>
       </c>
       <c r="C787">
-        <v>61.525</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -11718,7 +11718,7 @@
         <v>788</v>
       </c>
       <c r="C788">
-        <v>73.425</v>
+        <v>70.33333333333333</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -11729,7 +11729,7 @@
         <v>789</v>
       </c>
       <c r="C789">
-        <v>38.85</v>
+        <v>65.3611111111111</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -11740,7 +11740,7 @@
         <v>790</v>
       </c>
       <c r="C790">
-        <v>76.40000000000001</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -11751,7 +11751,7 @@
         <v>791</v>
       </c>
       <c r="C791">
-        <v>20.5</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -11762,7 +11762,7 @@
         <v>792</v>
       </c>
       <c r="C792">
-        <v>36.75</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -11773,7 +11773,7 @@
         <v>793</v>
       </c>
       <c r="C793">
-        <v>65.8</v>
+        <v>75.6111111111111</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -11784,7 +11784,7 @@
         <v>794</v>
       </c>
       <c r="C794">
-        <v>69.59999999999999</v>
+        <v>24.91666666666667</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -11795,7 +11795,7 @@
         <v>795</v>
       </c>
       <c r="C795">
-        <v>61.45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -11806,7 +11806,7 @@
         <v>796</v>
       </c>
       <c r="C796">
-        <v>46.3</v>
+        <v>69.41666666666667</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -11817,7 +11817,7 @@
         <v>797</v>
       </c>
       <c r="C797">
-        <v>75.95</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -11828,7 +11828,7 @@
         <v>798</v>
       </c>
       <c r="C798">
-        <v>70.84999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -11839,7 +11839,7 @@
         <v>799</v>
       </c>
       <c r="C799">
-        <v>49.15</v>
+        <v>81.16666666666667</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -11850,7 +11850,7 @@
         <v>800</v>
       </c>
       <c r="C800">
-        <v>83.09999999999999</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -11861,7 +11861,7 @@
         <v>801</v>
       </c>
       <c r="C801">
-        <v>76.34999999999999</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -11872,7 +11872,7 @@
         <v>802</v>
       </c>
       <c r="C802">
-        <v>60.5</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -11883,7 +11883,7 @@
         <v>803</v>
       </c>
       <c r="C803">
-        <v>60.05</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -11894,7 +11894,7 @@
         <v>804</v>
       </c>
       <c r="C804">
-        <v>76.8</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -11905,7 +11905,7 @@
         <v>805</v>
       </c>
       <c r="C805">
-        <v>75.34999999999999</v>
+        <v>84.91666666666667</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -11916,7 +11916,7 @@
         <v>806</v>
       </c>
       <c r="C806">
-        <v>54.525</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -11927,7 +11927,7 @@
         <v>807</v>
       </c>
       <c r="C807">
-        <v>67.55</v>
+        <v>22.91666666666667</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -11938,7 +11938,7 @@
         <v>808</v>
       </c>
       <c r="C808">
-        <v>77.375</v>
+        <v>71.41666666666667</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -11949,7 +11949,7 @@
         <v>809</v>
       </c>
       <c r="C809">
-        <v>46.025</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -11960,7 +11960,7 @@
         <v>810</v>
       </c>
       <c r="C810">
-        <v>48.35</v>
+        <v>84.83333333333333</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -11971,7 +11971,7 @@
         <v>811</v>
       </c>
       <c r="C811">
-        <v>47.8</v>
+        <v>84.66666666666667</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -11982,7 +11982,7 @@
         <v>812</v>
       </c>
       <c r="C812">
-        <v>54.7</v>
+        <v>22.91666666666667</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -11993,7 +11993,7 @@
         <v>813</v>
       </c>
       <c r="C813">
-        <v>54.325</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -12004,7 +12004,7 @@
         <v>814</v>
       </c>
       <c r="C814">
-        <v>71</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -12015,7 +12015,7 @@
         <v>815</v>
       </c>
       <c r="C815">
-        <v>55.7</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -12026,7 +12026,7 @@
         <v>816</v>
       </c>
       <c r="C816">
-        <v>80.40000000000001</v>
+        <v>80.77083333333333</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -12037,7 +12037,7 @@
         <v>817</v>
       </c>
       <c r="C817">
-        <v>47.975</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -12048,7 +12048,7 @@
         <v>818</v>
       </c>
       <c r="C818">
-        <v>54.75</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -12059,7 +12059,7 @@
         <v>819</v>
       </c>
       <c r="C819">
-        <v>70.34999999999999</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -12070,7 +12070,7 @@
         <v>820</v>
       </c>
       <c r="C820">
-        <v>62.3</v>
+        <v>69.36111111111111</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -12081,7 +12081,7 @@
         <v>821</v>
       </c>
       <c r="C821">
-        <v>77.7</v>
+        <v>84.83333333333333</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -12092,7 +12092,7 @@
         <v>822</v>
       </c>
       <c r="C822">
-        <v>67.90000000000001</v>
+        <v>70.91666666666667</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -12103,7 +12103,7 @@
         <v>823</v>
       </c>
       <c r="C823">
-        <v>64.325</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -12114,7 +12114,7 @@
         <v>824</v>
       </c>
       <c r="C824">
-        <v>73.09999999999999</v>
+        <v>37.66666666666666</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -12125,7 +12125,7 @@
         <v>825</v>
       </c>
       <c r="C825">
-        <v>44.775</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -12136,7 +12136,7 @@
         <v>826</v>
       </c>
       <c r="C826">
-        <v>61.875</v>
+        <v>72</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -12147,7 +12147,7 @@
         <v>827</v>
       </c>
       <c r="C827">
-        <v>63.75</v>
+        <v>75.33333333333333</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -12158,7 +12158,7 @@
         <v>828</v>
       </c>
       <c r="C828">
-        <v>69.15000000000001</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -12169,7 +12169,7 @@
         <v>829</v>
       </c>
       <c r="C829">
-        <v>59.45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -12180,7 +12180,7 @@
         <v>830</v>
       </c>
       <c r="C830">
-        <v>73.425</v>
+        <v>70.33333333333333</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -12191,7 +12191,7 @@
         <v>831</v>
       </c>
       <c r="C831">
-        <v>80.34999999999999</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -12202,7 +12202,7 @@
         <v>832</v>
       </c>
       <c r="C832">
-        <v>61.6</v>
+        <v>69.41666666666667</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -12213,7 +12213,7 @@
         <v>833</v>
       </c>
       <c r="C833">
-        <v>80.34999999999999</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -12224,7 +12224,7 @@
         <v>834</v>
       </c>
       <c r="C834">
-        <v>63.8</v>
+        <v>76.91666666666667</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -12235,7 +12235,7 @@
         <v>835</v>
       </c>
       <c r="C835">
-        <v>20.5</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -12246,7 +12246,7 @@
         <v>836</v>
       </c>
       <c r="C836">
-        <v>77.8</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -12257,7 +12257,7 @@
         <v>837</v>
       </c>
       <c r="C837">
-        <v>65</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -12268,7 +12268,7 @@
         <v>838</v>
       </c>
       <c r="C838">
-        <v>71.2</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -12279,7 +12279,7 @@
         <v>839</v>
       </c>
       <c r="C839">
-        <v>79.95</v>
+        <v>76.91666666666667</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -12290,7 +12290,7 @@
         <v>840</v>
       </c>
       <c r="C840">
-        <v>68.47499999999999</v>
+        <v>84.54166666666667</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -12301,7 +12301,7 @@
         <v>841</v>
       </c>
       <c r="C841">
-        <v>56.4</v>
+        <v>48.08333333333334</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -12312,7 +12312,7 @@
         <v>842</v>
       </c>
       <c r="C842">
-        <v>59.1</v>
+        <v>75.6111111111111</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -12323,7 +12323,7 @@
         <v>843</v>
       </c>
       <c r="C843">
-        <v>68.52500000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -12334,7 +12334,7 @@
         <v>844</v>
       </c>
       <c r="C844">
-        <v>76.25</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -12345,7 +12345,7 @@
         <v>845</v>
       </c>
       <c r="C845">
-        <v>51.6</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -12356,7 +12356,7 @@
         <v>846</v>
       </c>
       <c r="C846">
-        <v>31.95</v>
+        <v>80.20833333333333</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -12367,7 +12367,7 @@
         <v>847</v>
       </c>
       <c r="C847">
-        <v>53.7</v>
+        <v>79.29166666666667</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -12378,7 +12378,7 @@
         <v>848</v>
       </c>
       <c r="C848">
-        <v>49</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -12389,7 +12389,7 @@
         <v>849</v>
       </c>
       <c r="C849">
-        <v>70.075</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -12400,7 +12400,7 @@
         <v>850</v>
       </c>
       <c r="C850">
-        <v>55.425</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -12411,7 +12411,7 @@
         <v>851</v>
       </c>
       <c r="C851">
-        <v>50</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -12422,7 +12422,7 @@
         <v>852</v>
       </c>
       <c r="C852">
-        <v>80.09999999999999</v>
+        <v>71.08333333333333</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -12433,7 +12433,7 @@
         <v>853</v>
       </c>
       <c r="C853">
-        <v>35.25</v>
+        <v>84.58333333333333</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -12444,7 +12444,7 @@
         <v>854</v>
       </c>
       <c r="C854">
-        <v>71.40000000000001</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -12455,7 +12455,7 @@
         <v>855</v>
       </c>
       <c r="C855">
-        <v>34.05</v>
+        <v>48</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -12466,7 +12466,7 @@
         <v>856</v>
       </c>
       <c r="C856">
-        <v>72.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -12477,7 +12477,7 @@
         <v>857</v>
       </c>
       <c r="C857">
-        <v>32.9</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -12488,7 +12488,7 @@
         <v>858</v>
       </c>
       <c r="C858">
-        <v>47.775</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -12499,7 +12499,7 @@
         <v>859</v>
       </c>
       <c r="C859">
-        <v>55.15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -12510,7 +12510,7 @@
         <v>860</v>
       </c>
       <c r="C860">
-        <v>59.45</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -12521,7 +12521,7 @@
         <v>861</v>
       </c>
       <c r="C861">
-        <v>52.2</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -12532,7 +12532,7 @@
         <v>862</v>
       </c>
       <c r="C862">
-        <v>32.9</v>
+        <v>27.33333333333333</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -12543,7 +12543,7 @@
         <v>863</v>
       </c>
       <c r="C863">
-        <v>57.45</v>
+        <v>70.33333333333333</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -12554,7 +12554,7 @@
         <v>864</v>
       </c>
       <c r="C864">
-        <v>25.125</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -12565,7 +12565,7 @@
         <v>865</v>
       </c>
       <c r="C865">
-        <v>56.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -12576,7 +12576,7 @@
         <v>866</v>
       </c>
       <c r="C866">
-        <v>52.25</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -12587,7 +12587,7 @@
         <v>867</v>
       </c>
       <c r="C867">
-        <v>22.725</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -12598,7 +12598,7 @@
         <v>868</v>
       </c>
       <c r="C868">
-        <v>67.7</v>
+        <v>66.63888888888889</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -12609,7 +12609,7 @@
         <v>869</v>
       </c>
       <c r="C869">
-        <v>55.2</v>
+        <v>72.375</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -12620,7 +12620,7 @@
         <v>870</v>
       </c>
       <c r="C870">
-        <v>57.4</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -12631,7 +12631,7 @@
         <v>871</v>
       </c>
       <c r="C871">
-        <v>62.725</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -12642,7 +12642,7 @@
         <v>872</v>
       </c>
       <c r="C872">
-        <v>72.75</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -12653,7 +12653,7 @@
         <v>873</v>
       </c>
       <c r="C873">
-        <v>51.225</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -12664,7 +12664,7 @@
         <v>874</v>
       </c>
       <c r="C874">
-        <v>69.25</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -12675,7 +12675,7 @@
         <v>875</v>
       </c>
       <c r="C875">
-        <v>55.275</v>
+        <v>26.91666666666667</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -12686,7 +12686,7 @@
         <v>876</v>
       </c>
       <c r="C876">
-        <v>62.025</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -12697,7 +12697,7 @@
         <v>877</v>
       </c>
       <c r="C877">
-        <v>62.675</v>
+        <v>86.05555555555554</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -12708,7 +12708,7 @@
         <v>878</v>
       </c>
       <c r="C878">
-        <v>75.15000000000001</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -12719,7 +12719,7 @@
         <v>879</v>
       </c>
       <c r="C879">
-        <v>65.72499999999999</v>
+        <v>45.91666666666666</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -12730,7 +12730,7 @@
         <v>880</v>
       </c>
       <c r="C880">
-        <v>68.90000000000001</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -12741,7 +12741,7 @@
         <v>881</v>
       </c>
       <c r="C881">
-        <v>71</v>
+        <v>65.3611111111111</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -12752,7 +12752,7 @@
         <v>882</v>
       </c>
       <c r="C882">
-        <v>73.825</v>
+        <v>84.54166666666667</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -12763,7 +12763,7 @@
         <v>883</v>
       </c>
       <c r="C883">
-        <v>22.9</v>
+        <v>34.16666666666666</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -12774,7 +12774,7 @@
         <v>884</v>
       </c>
       <c r="C884">
-        <v>65.90000000000001</v>
+        <v>45.91666666666666</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -12785,7 +12785,7 @@
         <v>885</v>
       </c>
       <c r="C885">
-        <v>58.425</v>
+        <v>93.58333333333333</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -12796,7 +12796,7 @@
         <v>886</v>
       </c>
       <c r="C886">
-        <v>67.575</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -12807,7 +12807,7 @@
         <v>887</v>
       </c>
       <c r="C887">
-        <v>67.45</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -12818,7 +12818,7 @@
         <v>888</v>
       </c>
       <c r="C888">
-        <v>56.175</v>
+        <v>34.275</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -12829,7 +12829,7 @@
         <v>889</v>
       </c>
       <c r="C889">
-        <v>18.3</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -12840,7 +12840,7 @@
         <v>890</v>
       </c>
       <c r="C890">
-        <v>65.8</v>
+        <v>82.41666666666667</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -12851,7 +12851,7 @@
         <v>891</v>
       </c>
       <c r="C891">
-        <v>77.65000000000001</v>
+        <v>83.84027777777777</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -12862,7 +12862,7 @@
         <v>892</v>
       </c>
       <c r="C892">
-        <v>80.5</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
   </sheetData>
